--- a/Docs/AT-ETX-2i10G.CBL14.xlsx
+++ b/Docs/AT-ETX-2i10G.CBL14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB81B4-8650-40CE-8FA3-85377CEBFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D7EE7-E47E-4D7D-AA4B-CD8AD3EE0AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1455" windowWidth="20895" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1230" windowWidth="21600" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,11 +391,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +738,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,10 +749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>18</v>
       </c>
     </row>
